--- a/Architecture/bin/Debug/ProductData.xlsx
+++ b/Architecture/bin/Debug/ProductData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>RequestID</t>
   </si>
@@ -94,24 +94,12 @@
     <t>20/03/2020</t>
   </si>
   <si>
-    <t>Galaxy A40</t>
+    <t>Galaxy A30</t>
   </si>
   <si>
     <t>Smart Phone</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>13/05/2020</t>
-  </si>
-  <si>
-    <t>15/05/2020</t>
-  </si>
-  <si>
-    <t>Galaxy A30</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -119,6 +107,12 @@
   </si>
   <si>
     <t>17/06/2020</t>
+  </si>
+  <si>
+    <t>ES1-572</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
   </si>
 </sst>
 </file>
@@ -682,7 +676,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>1254</v>
+        <v>1283</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -697,7 +691,7 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -708,28 +702,28 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>32</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Architecture/bin/Debug/ProductData.xlsx
+++ b/Architecture/bin/Debug/ProductData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razvan\a-software-solution-for-media-bazaar\Architecture\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F930FC1-238D-40C1-BDD0-73E919A70459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="3210" yWindow="2565" windowWidth="21600" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exported from messages" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>RequestID</t>
   </si>
@@ -113,17 +119,26 @@
   </si>
   <si>
     <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>Macbook</t>
+  </si>
+  <si>
+    <t>23/06/2020</t>
+  </si>
+  <si>
+    <t>Samsung101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -153,10 +168,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -458,15 +477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-  <sheetPr/>
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1239</v>
       </c>
@@ -518,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1243</v>
       </c>
@@ -544,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1246</v>
       </c>
@@ -570,7 +588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1247</v>
       </c>
@@ -596,7 +614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1248</v>
       </c>
@@ -622,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1249</v>
       </c>
@@ -648,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1251</v>
       </c>
@@ -674,7 +692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1283</v>
       </c>
@@ -700,7 +718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1287</v>
       </c>
@@ -726,8 +744,60 @@
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1289</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Architecture/bin/Debug/ProductData.xlsx
+++ b/Architecture/bin/Debug/ProductData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razvan\a-software-solution-for-media-bazaar\Architecture\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F930FC1-238D-40C1-BDD0-73E919A70459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C93A0B-B66D-49F9-98DF-6B5C787B6B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2565" windowWidth="21600" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1710" windowWidth="21600" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exported from messages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>RequestID</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Samsung101</t>
+  </si>
+  <si>
+    <t>Samsung10001</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -796,6 +802,32 @@
         <v>34</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1290</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
